--- a/results/accel-glmm-results/habitat/lmb/glmm_main_effects_hab_lmb.xlsx
+++ b/results/accel-glmm-results/habitat/lmb/glmm_main_effects_hab_lmb.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>75.5988668185889</v>
+        <v>198.145858767968</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00000000000000148846982515385</v>
+        <v>0.0000000000000000000000000000000000000000094078433076032</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat/lmb/glmm_main_effects_hab_lmb.xlsx
+++ b/results/accel-glmm-results/habitat/lmb/glmm_main_effects_hab_lmb.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>198.145858767968</v>
+        <v>189.511307500956</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000000000000000000000000000000094078433076032</v>
+        <v>0.000000000000000000000000000000000000000675004817977875</v>
       </c>
     </row>
   </sheetData>
